--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>138.052</v>
       </c>
       <c r="G2" t="n">
-        <v>16334.21227255668</v>
+        <v>380.15</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>865.66</v>
       </c>
       <c r="G3" t="n">
-        <v>16334.21227255668</v>
+        <v>379.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>0.734</v>
       </c>
       <c r="G4" t="n">
-        <v>16334.21227255668</v>
+        <v>378.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>52.361</v>
       </c>
       <c r="G5" t="n">
-        <v>16281.85127255668</v>
+        <v>376.85</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>3197.0992</v>
       </c>
       <c r="G6" t="n">
-        <v>19478.95047255668</v>
+        <v>376.25</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,13 +633,13 @@
         <v>110.878</v>
       </c>
       <c r="G7" t="n">
-        <v>19368.07247255668</v>
+        <v>374.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>19371.07247255668</v>
+        <v>374.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,13 +705,13 @@
         <v>157.1757</v>
       </c>
       <c r="G9" t="n">
-        <v>19371.07247255668</v>
+        <v>373.65</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>19371.07247255668</v>
+        <v>373.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,13 +777,13 @@
         <v>186.8445</v>
       </c>
       <c r="G11" t="n">
-        <v>19557.91697255668</v>
+        <v>373.35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,13 +813,13 @@
         <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>19558.96697255667</v>
+        <v>373.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>391.5969</v>
       </c>
       <c r="G13" t="n">
-        <v>19950.56387255668</v>
+        <v>374.55</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>5456.3683</v>
       </c>
       <c r="G14" t="n">
-        <v>14494.19557255667</v>
+        <v>375.55</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>38.7358</v>
       </c>
       <c r="G15" t="n">
-        <v>14532.93137255668</v>
+        <v>376</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,13 +957,13 @@
         <v>655.0225</v>
       </c>
       <c r="G16" t="n">
-        <v>13877.90887255668</v>
+        <v>376</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>13878.90887255668</v>
+        <v>376.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>13876.90887255668</v>
+        <v>377.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>500.6927</v>
       </c>
       <c r="G19" t="n">
-        <v>13876.90887255668</v>
+        <v>377.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>442.4409</v>
       </c>
       <c r="G20" t="n">
-        <v>13876.90887255668</v>
+        <v>377.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,13 +1137,13 @@
         <v>19.0949</v>
       </c>
       <c r="G21" t="n">
-        <v>13896.00377255668</v>
+        <v>378.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,13 +1173,13 @@
         <v>369.3975</v>
       </c>
       <c r="G22" t="n">
-        <v>13526.60627255668</v>
+        <v>378.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,13 +1209,13 @@
         <v>2400.9364</v>
       </c>
       <c r="G23" t="n">
-        <v>15927.54267255668</v>
+        <v>378.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,13 +1245,13 @@
         <v>1694.8768</v>
       </c>
       <c r="G24" t="n">
-        <v>14232.66587255668</v>
+        <v>378.65</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,13 +1281,13 @@
         <v>524.7787</v>
       </c>
       <c r="G25" t="n">
-        <v>14757.44457255668</v>
+        <v>379.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>2.9925</v>
       </c>
       <c r="G26" t="n">
-        <v>14754.45207255668</v>
+        <v>378.85</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,13 +1353,13 @@
         <v>625.6130000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>14128.83907255668</v>
+        <v>379.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,13 +1389,13 @@
         <v>51.0589</v>
       </c>
       <c r="G28" t="n">
-        <v>14128.83907255668</v>
+        <v>378.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,13 +1425,13 @@
         <v>208.27</v>
       </c>
       <c r="G29" t="n">
-        <v>14128.83907255668</v>
+        <v>377.95</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,13 +1461,13 @@
         <v>500.54</v>
       </c>
       <c r="G30" t="n">
-        <v>13628.29907255668</v>
+        <v>377.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,13 +1497,13 @@
         <v>768.7430000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>13628.29907255668</v>
+        <v>376.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,13 +1533,13 @@
         <v>28.13</v>
       </c>
       <c r="G32" t="n">
-        <v>13600.16907255668</v>
+        <v>374.75</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,13 +1569,13 @@
         <v>28.13</v>
       </c>
       <c r="G33" t="n">
-        <v>13600.16907255668</v>
+        <v>373</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>268.13</v>
       </c>
       <c r="G34" t="n">
-        <v>13332.03907255668</v>
+        <v>371.25</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>2047.907</v>
       </c>
       <c r="G35" t="n">
-        <v>11284.13207255668</v>
+        <v>370.15</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>312.38</v>
       </c>
       <c r="G36" t="n">
-        <v>11596.51207255668</v>
+        <v>369.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>303.6326</v>
       </c>
       <c r="G37" t="n">
-        <v>11900.14467255668</v>
+        <v>367.55</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>149.5733</v>
       </c>
       <c r="G38" t="n">
-        <v>11900.14467255668</v>
+        <v>365.95</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,13 +1785,13 @@
         <v>171.662</v>
       </c>
       <c r="G39" t="n">
-        <v>11900.14467255668</v>
+        <v>365</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,13 +1821,13 @@
         <v>8.666600000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>11908.81127255668</v>
+        <v>364.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,13 +1857,13 @@
         <v>41.5069</v>
       </c>
       <c r="G41" t="n">
-        <v>11867.30437255668</v>
+        <v>363.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,13 +1893,13 @@
         <v>240.1328</v>
       </c>
       <c r="G42" t="n">
-        <v>11627.17157255668</v>
+        <v>362</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>28.49</v>
       </c>
       <c r="G43" t="n">
-        <v>11627.17157255668</v>
+        <v>360.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>184.7345</v>
       </c>
       <c r="G44" t="n">
-        <v>11627.17157255668</v>
+        <v>359.55</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>5934.8059</v>
       </c>
       <c r="G45" t="n">
-        <v>5692.365672556681</v>
+        <v>358.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>97.1215</v>
       </c>
       <c r="G46" t="n">
-        <v>5789.487172556681</v>
+        <v>357.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>41.4031</v>
       </c>
       <c r="G47" t="n">
-        <v>5748.08407255668</v>
+        <v>356.55</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>300</v>
       </c>
       <c r="G48" t="n">
-        <v>6048.08407255668</v>
+        <v>356</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>266.2052</v>
       </c>
       <c r="G49" t="n">
-        <v>6314.289272556681</v>
+        <v>355.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>770.1309</v>
       </c>
       <c r="G50" t="n">
-        <v>7084.420172556681</v>
+        <v>355.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>666</v>
       </c>
       <c r="G51" t="n">
-        <v>7084.420172556681</v>
+        <v>355.05</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>1887.991</v>
       </c>
       <c r="G52" t="n">
-        <v>7084.420172556681</v>
+        <v>355.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>355</v>
       </c>
       <c r="G53" t="n">
-        <v>7439.420172556681</v>
+        <v>355.55</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>9142.267599999999</v>
       </c>
       <c r="G54" t="n">
-        <v>7439.420172556681</v>
+        <v>355.85</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>508.1936</v>
       </c>
       <c r="G55" t="n">
-        <v>7947.61377255668</v>
+        <v>356.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,13 +2397,13 @@
         <v>1577.109</v>
       </c>
       <c r="G56" t="n">
-        <v>7947.61377255668</v>
+        <v>357.05</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,13 +2433,13 @@
         <v>33</v>
       </c>
       <c r="G57" t="n">
-        <v>7914.61377255668</v>
+        <v>358.05</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,13 +2469,13 @@
         <v>38.4091</v>
       </c>
       <c r="G58" t="n">
-        <v>7876.204672556681</v>
+        <v>358.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>21.7283</v>
       </c>
       <c r="G59" t="n">
-        <v>7854.476372556681</v>
+        <v>359.35</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>7844.476372556681</v>
+        <v>359.75</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>11.7165</v>
       </c>
       <c r="G61" t="n">
-        <v>7856.192872556681</v>
+        <v>360.45</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>966.2789</v>
       </c>
       <c r="G62" t="n">
-        <v>6889.913972556681</v>
+        <v>361.05</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>6899.913972556681</v>
+        <v>361.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>6900.913972556681</v>
+        <v>361.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>6901.913972556681</v>
+        <v>362.55</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>1023.242</v>
       </c>
       <c r="G66" t="n">
-        <v>5878.671972556681</v>
+        <v>363.15</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>1.8066</v>
       </c>
       <c r="G67" t="n">
-        <v>5880.478572556681</v>
+        <v>363.75</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>197.0184</v>
       </c>
       <c r="G68" t="n">
-        <v>5683.460172556681</v>
+        <v>364</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>214.95</v>
       </c>
       <c r="G69" t="n">
-        <v>5898.410172556681</v>
+        <v>364.15</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>5876.05</v>
       </c>
       <c r="G70" t="n">
-        <v>22.36017255668048</v>
+        <v>364.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>32.36017255668048</v>
+        <v>363.95</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>1.0227</v>
       </c>
       <c r="G72" t="n">
-        <v>33.38287255668048</v>
+        <v>364.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>1.375</v>
       </c>
       <c r="G73" t="n">
-        <v>32.00787255668048</v>
+        <v>364.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>201.7069</v>
       </c>
       <c r="G74" t="n">
-        <v>-169.6990274433195</v>
+        <v>364</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>272.252</v>
       </c>
       <c r="G75" t="n">
-        <v>-169.6990274433195</v>
+        <v>363.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3117,7 @@
         <v>418.6628</v>
       </c>
       <c r="G76" t="n">
-        <v>248.9637725566805</v>
+        <v>363.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3153,7 @@
         <v>4500</v>
       </c>
       <c r="G77" t="n">
-        <v>248.9637725566805</v>
+        <v>362.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3189,7 @@
         <v>3983.03</v>
       </c>
       <c r="G78" t="n">
-        <v>4231.993772556681</v>
+        <v>361.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,7 +3225,7 @@
         <v>56</v>
       </c>
       <c r="G79" t="n">
-        <v>4175.993772556681</v>
+        <v>361.65</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3261,7 @@
         <v>829.6319999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>5005.62577255668</v>
+        <v>361.55</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,7 +3297,7 @@
         <v>2549.741</v>
       </c>
       <c r="G81" t="n">
-        <v>2455.88477255668</v>
+        <v>361.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3333,7 @@
         <v>115</v>
       </c>
       <c r="G82" t="n">
-        <v>2570.88477255668</v>
+        <v>361.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,7 +3369,7 @@
         <v>27.74</v>
       </c>
       <c r="G83" t="n">
-        <v>2543.14477255668</v>
+        <v>361.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,7 +3405,7 @@
         <v>207.25</v>
       </c>
       <c r="G84" t="n">
-        <v>2335.89477255668</v>
+        <v>360.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,7 +3441,7 @@
         <v>207.563</v>
       </c>
       <c r="G85" t="n">
-        <v>2543.457772556681</v>
+        <v>360.15</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,7 +3477,7 @@
         <v>335.086</v>
       </c>
       <c r="G86" t="n">
-        <v>2208.37177255668</v>
+        <v>359.65</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3423,7 +3513,7 @@
         <v>552.606</v>
       </c>
       <c r="G87" t="n">
-        <v>1655.76577255668</v>
+        <v>359.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,7 +3549,7 @@
         <v>7466.463</v>
       </c>
       <c r="G88" t="n">
-        <v>-5810.697227443319</v>
+        <v>358.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3493,7 +3585,7 @@
         <v>24.88</v>
       </c>
       <c r="G89" t="n">
-        <v>-5785.817227443319</v>
+        <v>358.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3528,7 +3621,7 @@
         <v>220.955</v>
       </c>
       <c r="G90" t="n">
-        <v>-5785.817227443319</v>
+        <v>357.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3563,7 +3657,7 @@
         <v>673.1906</v>
       </c>
       <c r="G91" t="n">
-        <v>-5112.626627443319</v>
+        <v>357.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3598,7 +3693,7 @@
         <v>679.3579999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-4433.268627443319</v>
+        <v>357.65</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3633,7 +3729,7 @@
         <v>661.028</v>
       </c>
       <c r="G93" t="n">
-        <v>-5094.296627443319</v>
+        <v>357.25</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3668,7 +3765,7 @@
         <v>31.6572</v>
       </c>
       <c r="G94" t="n">
-        <v>-5062.63942744332</v>
+        <v>357.05</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,7 +3801,7 @@
         <v>1015.438</v>
       </c>
       <c r="G95" t="n">
-        <v>-5062.63942744332</v>
+        <v>356.95</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3738,7 +3837,7 @@
         <v>1362.0108</v>
       </c>
       <c r="G96" t="n">
-        <v>-6424.65022744332</v>
+        <v>356.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3773,7 +3873,7 @@
         <v>297.08</v>
       </c>
       <c r="G97" t="n">
-        <v>-6424.65022744332</v>
+        <v>356</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3808,7 +3909,7 @@
         <v>1.02</v>
       </c>
       <c r="G98" t="n">
-        <v>-6425.67022744332</v>
+        <v>355.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3843,7 +3945,7 @@
         <v>446.558</v>
       </c>
       <c r="G99" t="n">
-        <v>-6425.67022744332</v>
+        <v>354.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3878,7 +3981,7 @@
         <v>1619.5315</v>
       </c>
       <c r="G100" t="n">
-        <v>-6425.67022744332</v>
+        <v>353.85</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3913,7 +4017,7 @@
         <v>1674.77</v>
       </c>
       <c r="G101" t="n">
-        <v>-6425.67022744332</v>
+        <v>352.8</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -3931,6 +4035,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3952,7 +4057,7 @@
         <v>8.06</v>
       </c>
       <c r="G102" t="n">
-        <v>-6425.67022744332</v>
+        <v>352.3</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3974,6 +4079,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3995,7 +4101,7 @@
         <v>445.5775</v>
       </c>
       <c r="G103" t="n">
-        <v>-6425.67022744332</v>
+        <v>351.95</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4017,6 +4123,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4038,7 +4145,7 @@
         <v>57.43</v>
       </c>
       <c r="G104" t="n">
-        <v>-6425.67022744332</v>
+        <v>351.75</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,6 +4159,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,7 +4181,7 @@
         <v>280.3</v>
       </c>
       <c r="G105" t="n">
-        <v>-6425.67022744332</v>
+        <v>351.55</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,6 +4195,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4108,7 +4217,7 @@
         <v>2023.612</v>
       </c>
       <c r="G106" t="n">
-        <v>-8449.28222744332</v>
+        <v>351.35</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,6 +4231,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4143,7 +4253,7 @@
         <v>250.041</v>
       </c>
       <c r="G107" t="n">
-        <v>-8449.28222744332</v>
+        <v>351.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,6 +4267,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4178,7 +4289,7 @@
         <v>5700.6157</v>
       </c>
       <c r="G108" t="n">
-        <v>-8449.28222744332</v>
+        <v>350.85</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4192,6 +4303,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4213,7 +4325,7 @@
         <v>943610.5041</v>
       </c>
       <c r="G109" t="n">
-        <v>-8449.28222744332</v>
+        <v>350.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4227,6 +4339,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4248,7 +4361,7 @@
         <v>1435192.0242</v>
       </c>
       <c r="G110" t="n">
-        <v>-8449.28222744332</v>
+        <v>350.55</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,6 +4375,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4283,7 +4397,7 @@
         <v>1491695.6472</v>
       </c>
       <c r="G111" t="n">
-        <v>-8449.28222744332</v>
+        <v>350.15</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4297,6 +4411,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4318,7 +4433,7 @@
         <v>864505.4319</v>
       </c>
       <c r="G112" t="n">
-        <v>-8449.28222744332</v>
+        <v>349.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,6 +4447,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4353,7 +4469,7 @@
         <v>1431993.4734</v>
       </c>
       <c r="G113" t="n">
-        <v>-8449.28222744332</v>
+        <v>349.15</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,6 +4483,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4388,7 +4505,7 @@
         <v>1431993.4734</v>
       </c>
       <c r="G114" t="n">
-        <v>-8449.28222744332</v>
+        <v>348.75</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,6 +4519,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4423,7 +4541,7 @@
         <v>1398691.2996</v>
       </c>
       <c r="G115" t="n">
-        <v>-8449.28222744332</v>
+        <v>348.25</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,6 +4555,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4458,7 +4577,7 @@
         <v>1037757.7501</v>
       </c>
       <c r="G116" t="n">
-        <v>-8449.28222744332</v>
+        <v>348.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,6 +4591,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4493,7 +4613,7 @@
         <v>879287.6495000001</v>
       </c>
       <c r="G117" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.95</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4507,6 +4627,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4528,7 +4649,7 @@
         <v>917731.2287</v>
       </c>
       <c r="G118" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,6 +4663,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4563,7 +4685,7 @@
         <v>1308717.3143</v>
       </c>
       <c r="G119" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,6 +4699,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4598,7 +4721,7 @@
         <v>725531.9006000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,6 +4735,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4633,7 +4757,7 @@
         <v>1150510.5934</v>
       </c>
       <c r="G121" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,6 +4771,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4668,7 +4793,7 @@
         <v>53101.9293</v>
       </c>
       <c r="G122" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.45</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,6 +4807,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4703,7 +4829,7 @@
         <v>67464.24370000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-8449.28222744332</v>
+        <v>347.35</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,6 +4843,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4738,7 +4865,7 @@
         <v>1313.6927</v>
       </c>
       <c r="G124" t="n">
-        <v>-7135.589527443321</v>
+        <v>347.25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,6 +4879,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4773,7 +4901,7 @@
         <v>2390.8324</v>
       </c>
       <c r="G125" t="n">
-        <v>-9526.42192744332</v>
+        <v>347.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,6 +4915,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C2" t="n">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D2" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F2" t="n">
-        <v>138.052</v>
+        <v>258.9774074935401</v>
       </c>
       <c r="G2" t="n">
-        <v>380.15</v>
+        <v>14010.86678517841</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C3" t="n">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D3" t="n">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E3" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F3" t="n">
-        <v>865.66</v>
+        <v>938.7598</v>
       </c>
       <c r="G3" t="n">
-        <v>379.2</v>
+        <v>14949.62658517841</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="C4" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D4" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E4" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="F4" t="n">
-        <v>0.734</v>
+        <v>932.2487</v>
       </c>
       <c r="G4" t="n">
-        <v>378.25</v>
+        <v>14017.37788517841</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="C5" t="n">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="D5" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="F5" t="n">
-        <v>52.361</v>
+        <v>735.3121</v>
       </c>
       <c r="G5" t="n">
-        <v>376.85</v>
+        <v>13282.06578517841</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C6" t="n">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D6" t="n">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E6" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F6" t="n">
-        <v>3197.0992</v>
+        <v>719.8017925064599</v>
       </c>
       <c r="G6" t="n">
-        <v>376.25</v>
+        <v>14001.86757768487</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="C7" t="n">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="D7" t="n">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="E7" t="n">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="F7" t="n">
-        <v>110.878</v>
+        <v>39.4346</v>
       </c>
       <c r="G7" t="n">
-        <v>374.95</v>
+        <v>14001.86757768487</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C8" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D8" t="n">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E8" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>230.7564</v>
       </c>
       <c r="G8" t="n">
-        <v>374.5</v>
+        <v>13771.11117768487</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C9" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D9" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E9" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F9" t="n">
-        <v>157.1757</v>
+        <v>153.9924051282051</v>
       </c>
       <c r="G9" t="n">
-        <v>373.65</v>
+        <v>13771.11117768487</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C10" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D10" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E10" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3250.508694871795</v>
       </c>
       <c r="G10" t="n">
-        <v>373.2</v>
+        <v>17021.61987255667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C11" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D11" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E11" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F11" t="n">
-        <v>186.8445</v>
+        <v>401.759</v>
       </c>
       <c r="G11" t="n">
-        <v>373.35</v>
+        <v>17423.37887255667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C12" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D12" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E12" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>926.3821</v>
       </c>
       <c r="G12" t="n">
-        <v>373.6</v>
+        <v>16496.99677255667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C13" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D13" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E13" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F13" t="n">
-        <v>391.5969</v>
+        <v>4977.213</v>
       </c>
       <c r="G13" t="n">
-        <v>374.55</v>
+        <v>16496.99677255667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C14" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D14" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E14" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F14" t="n">
-        <v>5456.3683</v>
+        <v>3.1241</v>
       </c>
       <c r="G14" t="n">
-        <v>375.55</v>
+        <v>16493.87267255667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C15" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D15" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E15" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F15" t="n">
-        <v>38.7358</v>
+        <v>416.8274</v>
       </c>
       <c r="G15" t="n">
-        <v>376</v>
+        <v>16910.70007255667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C16" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D16" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E16" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F16" t="n">
-        <v>655.0225</v>
+        <v>2225.1904</v>
       </c>
       <c r="G16" t="n">
-        <v>376</v>
+        <v>19135.89047255667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C17" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D17" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E17" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>1478.8555</v>
       </c>
       <c r="G17" t="n">
-        <v>376.8</v>
+        <v>19135.89047255667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C18" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E18" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2261.6111</v>
       </c>
       <c r="G18" t="n">
-        <v>377.65</v>
+        <v>16874.27937255667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C19" t="n">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="D19" t="n">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E19" t="n">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F19" t="n">
-        <v>500.6927</v>
+        <v>1.4833</v>
       </c>
       <c r="G19" t="n">
-        <v>377.8</v>
+        <v>16875.76267255667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C20" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D20" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E20" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F20" t="n">
-        <v>442.4409</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="n">
-        <v>377.9</v>
+        <v>16872.07267255667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C21" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D21" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E21" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F21" t="n">
-        <v>19.0949</v>
+        <v>566.3069</v>
       </c>
       <c r="G21" t="n">
-        <v>378.1</v>
+        <v>16305.76577255667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C22" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D22" t="n">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E22" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F22" t="n">
-        <v>369.3975</v>
+        <v>2578.2892</v>
       </c>
       <c r="G22" t="n">
-        <v>378.3</v>
+        <v>13727.47657255667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C23" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D23" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E23" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F23" t="n">
-        <v>2400.9364</v>
+        <v>2053.0717</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5</v>
+        <v>11674.40487255667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C24" t="n">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D24" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E24" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F24" t="n">
-        <v>1694.8768</v>
+        <v>5230.2646</v>
       </c>
       <c r="G24" t="n">
-        <v>378.65</v>
+        <v>16904.66947255667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E25" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F25" t="n">
-        <v>524.7787</v>
+        <v>13.0208</v>
       </c>
       <c r="G25" t="n">
-        <v>379.3</v>
+        <v>16891.64867255667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C26" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D26" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E26" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F26" t="n">
-        <v>2.9925</v>
+        <v>218.189</v>
       </c>
       <c r="G26" t="n">
-        <v>378.85</v>
+        <v>16673.45967255667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C27" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D27" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E27" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F27" t="n">
-        <v>625.6130000000001</v>
+        <v>435.954</v>
       </c>
       <c r="G27" t="n">
-        <v>379.1</v>
+        <v>16237.50567255667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C28" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D28" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E28" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F28" t="n">
-        <v>51.0589</v>
+        <v>258.9774</v>
       </c>
       <c r="G28" t="n">
-        <v>378.3</v>
+        <v>16496.48307255668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C29" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D29" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E29" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F29" t="n">
-        <v>208.27</v>
+        <v>171.7</v>
       </c>
       <c r="G29" t="n">
-        <v>377.95</v>
+        <v>16668.18307255668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C30" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D30" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E30" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F30" t="n">
-        <v>500.54</v>
+        <v>195.9188</v>
       </c>
       <c r="G30" t="n">
-        <v>377.1</v>
+        <v>16472.26427255668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C31" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D31" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E31" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F31" t="n">
-        <v>768.7430000000001</v>
+        <v>138.052</v>
       </c>
       <c r="G31" t="n">
-        <v>376.25</v>
+        <v>16334.21227255668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C32" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D32" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E32" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F32" t="n">
-        <v>28.13</v>
+        <v>865.66</v>
       </c>
       <c r="G32" t="n">
-        <v>374.75</v>
+        <v>16334.21227255668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C33" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D33" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E33" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F33" t="n">
-        <v>28.13</v>
+        <v>0.734</v>
       </c>
       <c r="G33" t="n">
-        <v>373</v>
+        <v>16334.21227255668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C34" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D34" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E34" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F34" t="n">
-        <v>268.13</v>
+        <v>52.361</v>
       </c>
       <c r="G34" t="n">
-        <v>371.25</v>
+        <v>16281.85127255668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C35" t="n">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D35" t="n">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="E35" t="n">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F35" t="n">
-        <v>2047.907</v>
+        <v>3197.0992</v>
       </c>
       <c r="G35" t="n">
-        <v>370.15</v>
+        <v>19478.95047255668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C36" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D36" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E36" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38</v>
+        <v>110.878</v>
       </c>
       <c r="G36" t="n">
-        <v>369.2</v>
+        <v>19368.07247255668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C37" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D37" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E37" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="F37" t="n">
-        <v>303.6326</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>367.55</v>
+        <v>19371.07247255668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C38" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D38" t="n">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E38" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F38" t="n">
-        <v>149.5733</v>
+        <v>157.1757</v>
       </c>
       <c r="G38" t="n">
-        <v>365.95</v>
+        <v>19371.07247255668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C39" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D39" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E39" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F39" t="n">
-        <v>171.662</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>365</v>
+        <v>19371.07247255668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C40" t="n">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D40" t="n">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="E40" t="n">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F40" t="n">
-        <v>8.666600000000001</v>
+        <v>186.8445</v>
       </c>
       <c r="G40" t="n">
-        <v>364.2</v>
+        <v>19557.91697255668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="C41" t="n">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="D41" t="n">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E41" t="n">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F41" t="n">
-        <v>41.5069</v>
+        <v>1.05</v>
       </c>
       <c r="G41" t="n">
-        <v>363.3</v>
+        <v>19558.96697255667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="C42" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="D42" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E42" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="F42" t="n">
-        <v>240.1328</v>
+        <v>391.5969</v>
       </c>
       <c r="G42" t="n">
-        <v>362</v>
+        <v>19950.56387255668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="C43" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D43" t="n">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E43" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="F43" t="n">
-        <v>28.49</v>
+        <v>5456.3683</v>
       </c>
       <c r="G43" t="n">
-        <v>360.75</v>
+        <v>14494.19557255667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C44" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="D44" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E44" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="F44" t="n">
-        <v>184.7345</v>
+        <v>38.7358</v>
       </c>
       <c r="G44" t="n">
-        <v>359.55</v>
+        <v>14532.93137255668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="C45" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D45" t="n">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="E45" t="n">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="F45" t="n">
-        <v>5934.8059</v>
+        <v>655.0225</v>
       </c>
       <c r="G45" t="n">
-        <v>358.3</v>
+        <v>13877.90887255668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C46" t="n">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D46" t="n">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="E46" t="n">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="F46" t="n">
-        <v>97.1215</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>357.5</v>
+        <v>13878.90887255668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="C47" t="n">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D47" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="E47" t="n">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="F47" t="n">
-        <v>41.4031</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>356.55</v>
+        <v>13876.90887255668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C48" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D48" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="E48" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>500.6927</v>
       </c>
       <c r="G48" t="n">
-        <v>356</v>
+        <v>13876.90887255668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C49" t="n">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="D49" t="n">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="E49" t="n">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F49" t="n">
-        <v>266.2052</v>
+        <v>442.4409</v>
       </c>
       <c r="G49" t="n">
-        <v>355.6</v>
+        <v>13876.90887255668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C50" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="D50" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E50" t="n">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F50" t="n">
-        <v>770.1309</v>
+        <v>19.0949</v>
       </c>
       <c r="G50" t="n">
-        <v>355.3</v>
+        <v>13896.00377255668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C51" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D51" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E51" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F51" t="n">
-        <v>666</v>
+        <v>369.3975</v>
       </c>
       <c r="G51" t="n">
-        <v>355.05</v>
+        <v>13526.60627255668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C52" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="D52" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E52" t="n">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="F52" t="n">
-        <v>1887.991</v>
+        <v>2400.9364</v>
       </c>
       <c r="G52" t="n">
-        <v>355.3</v>
+        <v>15927.54267255668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C53" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D53" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F53" t="n">
-        <v>355</v>
+        <v>1694.8768</v>
       </c>
       <c r="G53" t="n">
-        <v>355.55</v>
+        <v>14232.66587255668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C54" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D54" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E54" t="n">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F54" t="n">
-        <v>9142.267599999999</v>
+        <v>524.7787</v>
       </c>
       <c r="G54" t="n">
-        <v>355.85</v>
+        <v>14757.44457255668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C55" t="n">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D55" t="n">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E55" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F55" t="n">
-        <v>508.1936</v>
+        <v>2.9925</v>
       </c>
       <c r="G55" t="n">
-        <v>356.2</v>
+        <v>14754.45207255668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C56" t="n">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D56" t="n">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E56" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F56" t="n">
-        <v>1577.109</v>
+        <v>625.6130000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>357.05</v>
+        <v>14128.83907255668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C57" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D57" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E57" t="n">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>51.0589</v>
       </c>
       <c r="G57" t="n">
-        <v>358.05</v>
+        <v>14128.83907255668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C58" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D58" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E58" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F58" t="n">
-        <v>38.4091</v>
+        <v>208.27</v>
       </c>
       <c r="G58" t="n">
-        <v>358.7</v>
+        <v>14128.83907255668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C59" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D59" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E59" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F59" t="n">
-        <v>21.7283</v>
+        <v>500.54</v>
       </c>
       <c r="G59" t="n">
-        <v>359.35</v>
+        <v>13628.29907255668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C60" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D60" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E60" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>768.7430000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>359.75</v>
+        <v>13628.29907255668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C61" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D61" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E61" t="n">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F61" t="n">
-        <v>11.7165</v>
+        <v>28.13</v>
       </c>
       <c r="G61" t="n">
-        <v>360.45</v>
+        <v>13600.16907255668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C62" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D62" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E62" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F62" t="n">
-        <v>966.2789</v>
+        <v>28.13</v>
       </c>
       <c r="G62" t="n">
-        <v>361.05</v>
+        <v>13600.16907255668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C63" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D63" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E63" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>268.13</v>
       </c>
       <c r="G63" t="n">
-        <v>361.3</v>
+        <v>13332.03907255668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C64" t="n">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D64" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E64" t="n">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2047.907</v>
       </c>
       <c r="G64" t="n">
-        <v>361.8</v>
+        <v>11284.13207255668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C65" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D65" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E65" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>312.38</v>
       </c>
       <c r="G65" t="n">
-        <v>362.55</v>
+        <v>11596.51207255668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C66" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D66" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E66" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F66" t="n">
-        <v>1023.242</v>
+        <v>303.6326</v>
       </c>
       <c r="G66" t="n">
-        <v>363.15</v>
+        <v>11900.14467255668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C67" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D67" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E67" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F67" t="n">
-        <v>1.8066</v>
+        <v>149.5733</v>
       </c>
       <c r="G67" t="n">
-        <v>363.75</v>
+        <v>11900.14467255668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C68" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D68" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E68" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F68" t="n">
-        <v>197.0184</v>
+        <v>171.662</v>
       </c>
       <c r="G68" t="n">
-        <v>364</v>
+        <v>11900.14467255668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C69" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D69" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E69" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>214.95</v>
+        <v>8.666600000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>364.15</v>
+        <v>11908.81127255668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C70" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D70" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E70" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F70" t="n">
-        <v>5876.05</v>
+        <v>41.5069</v>
       </c>
       <c r="G70" t="n">
-        <v>364.3</v>
+        <v>11867.30437255668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D71" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>240.1328</v>
       </c>
       <c r="G71" t="n">
-        <v>363.95</v>
+        <v>11627.17157255668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C72" t="n">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D72" t="n">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E72" t="n">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0227</v>
+        <v>28.49</v>
       </c>
       <c r="G72" t="n">
-        <v>364.1</v>
+        <v>11627.17157255668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C73" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D73" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E73" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F73" t="n">
-        <v>1.375</v>
+        <v>184.7345</v>
       </c>
       <c r="G73" t="n">
-        <v>364.1</v>
+        <v>11627.17157255668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C74" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D74" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E74" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F74" t="n">
-        <v>201.7069</v>
+        <v>5934.8059</v>
       </c>
       <c r="G74" t="n">
-        <v>364</v>
+        <v>5692.365672556681</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C75" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D75" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E75" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F75" t="n">
-        <v>272.252</v>
+        <v>97.1215</v>
       </c>
       <c r="G75" t="n">
-        <v>363.9</v>
+        <v>5789.487172556681</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C76" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D76" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E76" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F76" t="n">
-        <v>418.6628</v>
+        <v>41.4031</v>
       </c>
       <c r="G76" t="n">
-        <v>363.2</v>
+        <v>5748.08407255668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C77" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D77" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E77" t="n">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F77" t="n">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>362.4</v>
+        <v>6048.08407255668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D78" t="n">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E78" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F78" t="n">
-        <v>3983.03</v>
+        <v>266.2052</v>
       </c>
       <c r="G78" t="n">
-        <v>361.9</v>
+        <v>6314.289272556681</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C79" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D79" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E79" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F79" t="n">
-        <v>56</v>
+        <v>770.1309</v>
       </c>
       <c r="G79" t="n">
-        <v>361.65</v>
+        <v>7084.420172556681</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C80" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D80" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E80" t="n">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F80" t="n">
-        <v>829.6319999999999</v>
+        <v>666</v>
       </c>
       <c r="G80" t="n">
-        <v>361.55</v>
+        <v>7084.420172556681</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C81" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D81" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E81" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F81" t="n">
-        <v>2549.741</v>
+        <v>1887.991</v>
       </c>
       <c r="G81" t="n">
-        <v>361.4</v>
+        <v>7084.420172556681</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C82" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D82" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E82" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F82" t="n">
-        <v>115</v>
+        <v>355</v>
       </c>
       <c r="G82" t="n">
-        <v>361.2</v>
+        <v>7439.420172556681</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C83" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D83" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E83" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F83" t="n">
-        <v>27.74</v>
+        <v>9142.267599999999</v>
       </c>
       <c r="G83" t="n">
-        <v>361.2</v>
+        <v>7439.420172556681</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C84" t="n">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="D84" t="n">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="E84" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F84" t="n">
-        <v>207.25</v>
+        <v>508.1936</v>
       </c>
       <c r="G84" t="n">
-        <v>360.8</v>
+        <v>7947.61377255668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C85" t="n">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="D85" t="n">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="E85" t="n">
         <v>353</v>
       </c>
       <c r="F85" t="n">
-        <v>207.563</v>
+        <v>1577.109</v>
       </c>
       <c r="G85" t="n">
-        <v>360.15</v>
+        <v>7947.61377255668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C86" t="n">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="D86" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="E86" t="n">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="F86" t="n">
-        <v>335.086</v>
+        <v>33</v>
       </c>
       <c r="G86" t="n">
-        <v>359.65</v>
+        <v>7914.61377255668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C87" t="n">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D87" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E87" t="n">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F87" t="n">
-        <v>552.606</v>
+        <v>38.4091</v>
       </c>
       <c r="G87" t="n">
-        <v>359.2</v>
+        <v>7876.204672556681</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C88" t="n">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D88" t="n">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="E88" t="n">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="F88" t="n">
-        <v>7466.463</v>
+        <v>21.7283</v>
       </c>
       <c r="G88" t="n">
-        <v>358.75</v>
+        <v>7854.476372556681</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C89" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D89" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E89" t="n">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F89" t="n">
-        <v>24.88</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>358.2</v>
+        <v>7844.476372556681</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C90" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D90" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="E90" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F90" t="n">
-        <v>220.955</v>
+        <v>11.7165</v>
       </c>
       <c r="G90" t="n">
-        <v>357.6</v>
+        <v>7856.192872556681</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C91" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D91" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E91" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F91" t="n">
-        <v>673.1906</v>
+        <v>966.2789</v>
       </c>
       <c r="G91" t="n">
-        <v>357.7</v>
+        <v>6889.913972556681</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C92" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D92" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E92" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F92" t="n">
-        <v>679.3579999999999</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>357.65</v>
+        <v>6899.913972556681</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C93" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D93" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E93" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>661.028</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>357.25</v>
+        <v>6900.913972556681</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C94" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D94" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E94" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F94" t="n">
-        <v>31.6572</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>357.05</v>
+        <v>6901.913972556681</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C95" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D95" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E95" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F95" t="n">
-        <v>1015.438</v>
+        <v>1023.242</v>
       </c>
       <c r="G95" t="n">
-        <v>356.95</v>
+        <v>5878.671972556681</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C96" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D96" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E96" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F96" t="n">
-        <v>1362.0108</v>
+        <v>1.8066</v>
       </c>
       <c r="G96" t="n">
-        <v>356.5</v>
+        <v>5880.478572556681</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C97" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D97" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E97" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F97" t="n">
-        <v>297.08</v>
+        <v>197.0184</v>
       </c>
       <c r="G97" t="n">
-        <v>356</v>
+        <v>5683.460172556681</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C98" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D98" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E98" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F98" t="n">
-        <v>1.02</v>
+        <v>214.95</v>
       </c>
       <c r="G98" t="n">
-        <v>355.5</v>
+        <v>5898.410172556681</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C99" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D99" t="n">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="E99" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F99" t="n">
-        <v>446.558</v>
+        <v>5876.05</v>
       </c>
       <c r="G99" t="n">
-        <v>354.7</v>
+        <v>22.36017255668048</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C100" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D100" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E100" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F100" t="n">
-        <v>1619.5315</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>353.85</v>
+        <v>32.36017255668048</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,35 +4002,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C101" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D101" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E101" t="n">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F101" t="n">
-        <v>1674.77</v>
+        <v>1.0227</v>
       </c>
       <c r="G101" t="n">
-        <v>352.8</v>
+        <v>33.38287255668048</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>349</v>
-      </c>
-      <c r="K101" t="n">
-        <v>349</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4042,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C102" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E102" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F102" t="n">
-        <v>8.06</v>
+        <v>1.375</v>
       </c>
       <c r="G102" t="n">
-        <v>352.3</v>
+        <v>32.00787255668048</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>349</v>
-      </c>
-      <c r="K102" t="n">
-        <v>349</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4086,40 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C103" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D103" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E103" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F103" t="n">
-        <v>445.5775</v>
+        <v>201.7069</v>
       </c>
       <c r="G103" t="n">
-        <v>351.95</v>
+        <v>-169.6990274433195</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>349</v>
-      </c>
-      <c r="K103" t="n">
-        <v>349</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4130,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C104" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D104" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E104" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F104" t="n">
-        <v>57.43</v>
+        <v>272.252</v>
       </c>
       <c r="G104" t="n">
-        <v>351.75</v>
+        <v>-169.6990274433195</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4166,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C105" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D105" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E105" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F105" t="n">
-        <v>280.3</v>
+        <v>418.6628</v>
       </c>
       <c r="G105" t="n">
-        <v>351.55</v>
+        <v>248.9637725566805</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4202,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C106" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D106" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E106" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F106" t="n">
-        <v>2023.612</v>
+        <v>4500</v>
       </c>
       <c r="G106" t="n">
-        <v>351.35</v>
+        <v>248.9637725566805</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4238,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C107" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D107" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="E107" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F107" t="n">
-        <v>250.041</v>
+        <v>3983.03</v>
       </c>
       <c r="G107" t="n">
-        <v>351.05</v>
+        <v>4231.993772556681</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C108" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D108" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E108" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F108" t="n">
-        <v>5700.6157</v>
+        <v>56</v>
       </c>
       <c r="G108" t="n">
-        <v>350.85</v>
+        <v>4175.993772556681</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4310,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C109" t="n">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D109" t="n">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="E109" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F109" t="n">
-        <v>943610.5041</v>
+        <v>829.6319999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>350.7</v>
+        <v>5005.62577255668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4346,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C110" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D110" t="n">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="E110" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F110" t="n">
-        <v>1435192.0242</v>
+        <v>2549.741</v>
       </c>
       <c r="G110" t="n">
-        <v>350.55</v>
+        <v>2455.88477255668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4382,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C111" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D111" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E111" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F111" t="n">
-        <v>1491695.6472</v>
+        <v>115</v>
       </c>
       <c r="G111" t="n">
-        <v>350.15</v>
+        <v>2570.88477255668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4418,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C112" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D112" t="n">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E112" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F112" t="n">
-        <v>864505.4319</v>
+        <v>27.74</v>
       </c>
       <c r="G112" t="n">
-        <v>349.4</v>
+        <v>2543.14477255668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4454,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C113" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D113" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E113" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F113" t="n">
-        <v>1431993.4734</v>
+        <v>207.25</v>
       </c>
       <c r="G113" t="n">
-        <v>349.15</v>
+        <v>2335.89477255668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4490,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C114" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D114" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E114" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F114" t="n">
-        <v>1431993.4734</v>
+        <v>207.563</v>
       </c>
       <c r="G114" t="n">
-        <v>348.75</v>
+        <v>2543.457772556681</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4526,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C115" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D115" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E115" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F115" t="n">
-        <v>1398691.2996</v>
+        <v>335.086</v>
       </c>
       <c r="G115" t="n">
-        <v>348.25</v>
+        <v>2208.37177255668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4562,32 +4542,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C116" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D116" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E116" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F116" t="n">
-        <v>1037757.7501</v>
+        <v>552.606</v>
       </c>
       <c r="G116" t="n">
-        <v>348.1</v>
+        <v>1655.76577255668</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>352</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4598,32 +4584,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C117" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D117" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E117" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F117" t="n">
-        <v>879287.6495000001</v>
+        <v>7466.463</v>
       </c>
       <c r="G117" t="n">
-        <v>347.95</v>
+        <v>-5810.697227443319</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>351</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4634,32 +4626,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C118" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D118" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E118" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F118" t="n">
-        <v>917731.2287</v>
+        <v>24.88</v>
       </c>
       <c r="G118" t="n">
-        <v>347.8</v>
+        <v>-5785.817227443319</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>349</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4670,32 +4668,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C119" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D119" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E119" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F119" t="n">
-        <v>1308717.3143</v>
+        <v>220.955</v>
       </c>
       <c r="G119" t="n">
-        <v>347.7</v>
+        <v>-5785.817227443319</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>350</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4706,32 +4710,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C120" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D120" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E120" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F120" t="n">
-        <v>725531.9006000001</v>
+        <v>673.1906</v>
       </c>
       <c r="G120" t="n">
-        <v>347.6</v>
+        <v>-5112.626627443319</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>350</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4742,32 +4752,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C121" t="n">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="D121" t="n">
+        <v>370</v>
+      </c>
+      <c r="E121" t="n">
         <v>362</v>
       </c>
-      <c r="E121" t="n">
-        <v>347</v>
-      </c>
       <c r="F121" t="n">
-        <v>1150510.5934</v>
+        <v>679.3579999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>347.5</v>
+        <v>-4433.268627443319</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>360</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +4794,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C122" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D122" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E122" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F122" t="n">
-        <v>53101.9293</v>
+        <v>661.028</v>
       </c>
       <c r="G122" t="n">
-        <v>347.45</v>
+        <v>-5094.296627443319</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4803,7 +4819,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4814,22 +4834,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C123" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D123" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E123" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F123" t="n">
-        <v>67464.24370000001</v>
+        <v>31.6572</v>
       </c>
       <c r="G123" t="n">
-        <v>347.35</v>
+        <v>-5062.63942744332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4839,7 +4859,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4850,22 +4874,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C124" t="n">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D124" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E124" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F124" t="n">
-        <v>1313.6927</v>
+        <v>1015.438</v>
       </c>
       <c r="G124" t="n">
-        <v>347.25</v>
+        <v>-5062.63942744332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4875,7 +4899,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4886,36 +4914,1226 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>350</v>
+      </c>
+      <c r="C125" t="n">
+        <v>350</v>
+      </c>
+      <c r="D125" t="n">
+        <v>350</v>
+      </c>
+      <c r="E125" t="n">
+        <v>350</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1362.0108</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-6424.65022744332</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>351</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>350</v>
+      </c>
+      <c r="C126" t="n">
+        <v>350</v>
+      </c>
+      <c r="D126" t="n">
+        <v>350</v>
+      </c>
+      <c r="E126" t="n">
+        <v>350</v>
+      </c>
+      <c r="F126" t="n">
+        <v>297.08</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-6424.65022744332</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>350</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>350</v>
+      </c>
+      <c r="C127" t="n">
+        <v>349</v>
+      </c>
+      <c r="D127" t="n">
+        <v>350</v>
+      </c>
+      <c r="E127" t="n">
+        <v>349</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>350</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>349</v>
+      </c>
+      <c r="C128" t="n">
+        <v>349</v>
+      </c>
+      <c r="D128" t="n">
+        <v>349</v>
+      </c>
+      <c r="E128" t="n">
+        <v>349</v>
+      </c>
+      <c r="F128" t="n">
+        <v>446.558</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>349</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>349</v>
+      </c>
+      <c r="C129" t="n">
+        <v>349</v>
+      </c>
+      <c r="D129" t="n">
+        <v>349</v>
+      </c>
+      <c r="E129" t="n">
+        <v>349</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1619.5315</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>349</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>349</v>
+      </c>
+      <c r="C130" t="n">
+        <v>349</v>
+      </c>
+      <c r="D130" t="n">
+        <v>349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>349</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1674.77</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>349</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>349</v>
+      </c>
+      <c r="C131" t="n">
+        <v>349</v>
+      </c>
+      <c r="D131" t="n">
+        <v>349</v>
+      </c>
+      <c r="E131" t="n">
+        <v>349</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>349</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>349</v>
+      </c>
+      <c r="C132" t="n">
+        <v>349</v>
+      </c>
+      <c r="D132" t="n">
+        <v>349</v>
+      </c>
+      <c r="E132" t="n">
+        <v>349</v>
+      </c>
+      <c r="F132" t="n">
+        <v>445.5775</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>349</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>349</v>
+      </c>
+      <c r="C133" t="n">
+        <v>349</v>
+      </c>
+      <c r="D133" t="n">
+        <v>349</v>
+      </c>
+      <c r="E133" t="n">
+        <v>349</v>
+      </c>
+      <c r="F133" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>349</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>349</v>
+      </c>
+      <c r="C134" t="n">
+        <v>349</v>
+      </c>
+      <c r="D134" t="n">
+        <v>349</v>
+      </c>
+      <c r="E134" t="n">
+        <v>349</v>
+      </c>
+      <c r="F134" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>349</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>349</v>
+      </c>
+      <c r="C135" t="n">
+        <v>347</v>
+      </c>
+      <c r="D135" t="n">
+        <v>349</v>
+      </c>
+      <c r="E135" t="n">
+        <v>347</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2023.612</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>347</v>
+      </c>
+      <c r="C136" t="n">
+        <v>347</v>
+      </c>
+      <c r="D136" t="n">
+        <v>347</v>
+      </c>
+      <c r="E136" t="n">
+        <v>347</v>
+      </c>
+      <c r="F136" t="n">
+        <v>250.041</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>347</v>
+      </c>
+      <c r="C137" t="n">
+        <v>347</v>
+      </c>
+      <c r="D137" t="n">
+        <v>347</v>
+      </c>
+      <c r="E137" t="n">
+        <v>347</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5700.6157</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>347</v>
+      </c>
+      <c r="C138" t="n">
+        <v>347</v>
+      </c>
+      <c r="D138" t="n">
+        <v>347</v>
+      </c>
+      <c r="E138" t="n">
+        <v>347</v>
+      </c>
+      <c r="F138" t="n">
+        <v>943610.5041</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>347</v>
+      </c>
+      <c r="C139" t="n">
+        <v>347</v>
+      </c>
+      <c r="D139" t="n">
+        <v>347</v>
+      </c>
+      <c r="E139" t="n">
+        <v>347</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1435192.0242</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>347</v>
+      </c>
+      <c r="C140" t="n">
+        <v>347</v>
+      </c>
+      <c r="D140" t="n">
+        <v>347</v>
+      </c>
+      <c r="E140" t="n">
+        <v>347</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1491695.6472</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>347</v>
+      </c>
+      <c r="C141" t="n">
+        <v>347</v>
+      </c>
+      <c r="D141" t="n">
+        <v>348</v>
+      </c>
+      <c r="E141" t="n">
+        <v>347</v>
+      </c>
+      <c r="F141" t="n">
+        <v>864505.4319</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>347</v>
+      </c>
+      <c r="C142" t="n">
+        <v>347</v>
+      </c>
+      <c r="D142" t="n">
+        <v>347</v>
+      </c>
+      <c r="E142" t="n">
+        <v>347</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1431993.4734</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>347</v>
+      </c>
+      <c r="C143" t="n">
+        <v>347</v>
+      </c>
+      <c r="D143" t="n">
+        <v>347</v>
+      </c>
+      <c r="E143" t="n">
+        <v>347</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1431993.4734</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>347</v>
+      </c>
+      <c r="C144" t="n">
+        <v>347</v>
+      </c>
+      <c r="D144" t="n">
+        <v>347</v>
+      </c>
+      <c r="E144" t="n">
+        <v>347</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1398691.2996</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>347</v>
+      </c>
+      <c r="C145" t="n">
+        <v>347</v>
+      </c>
+      <c r="D145" t="n">
+        <v>347</v>
+      </c>
+      <c r="E145" t="n">
+        <v>347</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1037757.7501</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>347</v>
+      </c>
+      <c r="C146" t="n">
+        <v>347</v>
+      </c>
+      <c r="D146" t="n">
+        <v>348</v>
+      </c>
+      <c r="E146" t="n">
+        <v>347</v>
+      </c>
+      <c r="F146" t="n">
+        <v>879287.6495000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>347</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>347</v>
+      </c>
+      <c r="C147" t="n">
+        <v>347</v>
+      </c>
+      <c r="D147" t="n">
+        <v>347</v>
+      </c>
+      <c r="E147" t="n">
+        <v>347</v>
+      </c>
+      <c r="F147" t="n">
+        <v>917731.2287</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>347</v>
+      </c>
+      <c r="C148" t="n">
+        <v>347</v>
+      </c>
+      <c r="D148" t="n">
+        <v>347</v>
+      </c>
+      <c r="E148" t="n">
+        <v>347</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1308717.3143</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>347</v>
+      </c>
+      <c r="C149" t="n">
+        <v>347</v>
+      </c>
+      <c r="D149" t="n">
+        <v>347</v>
+      </c>
+      <c r="E149" t="n">
+        <v>347</v>
+      </c>
+      <c r="F149" t="n">
+        <v>725531.9006000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>347</v>
+      </c>
+      <c r="C150" t="n">
+        <v>347</v>
+      </c>
+      <c r="D150" t="n">
+        <v>362</v>
+      </c>
+      <c r="E150" t="n">
+        <v>347</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1150510.5934</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>347</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>348</v>
+      </c>
+      <c r="C151" t="n">
+        <v>347</v>
+      </c>
+      <c r="D151" t="n">
+        <v>348</v>
+      </c>
+      <c r="E151" t="n">
+        <v>347</v>
+      </c>
+      <c r="F151" t="n">
+        <v>53101.9293</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>347</v>
+      </c>
+      <c r="C152" t="n">
+        <v>347</v>
+      </c>
+      <c r="D152" t="n">
+        <v>350</v>
+      </c>
+      <c r="E152" t="n">
+        <v>347</v>
+      </c>
+      <c r="F152" t="n">
+        <v>67464.24370000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>347</v>
+      </c>
+      <c r="C153" t="n">
+        <v>364</v>
+      </c>
+      <c r="D153" t="n">
+        <v>364</v>
+      </c>
+      <c r="E153" t="n">
+        <v>347</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1313.6927</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-7135.589527443321</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>360</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C154" t="n">
         <v>342</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D154" t="n">
         <v>364</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E154" t="n">
         <v>342</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F154" t="n">
         <v>2390.8324</v>
       </c>
-      <c r="G125" t="n">
-        <v>347.8</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>-9526.42192744332</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>364</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>17021.61987255667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>16493.87267255667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>16237.50567255667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>16668.18307255668</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>16281.85127255668</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>19478.95047255668</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>13526.60627255668</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>15927.54267255668</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>14232.66587255668</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,21 @@
         <v>2208.37177255668</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,24 +4219,21 @@
         <v>1655.76577255668</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>352</v>
       </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4602,24 +4258,21 @@
         <v>-5810.697227443319</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>351</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4644,24 +4297,21 @@
         <v>-5785.817227443319</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>349</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,24 +4336,21 @@
         <v>-5785.817227443319</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
         <v>350</v>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4728,24 +4375,21 @@
         <v>-5112.626627443319</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
         <v>350</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4770,24 +4414,19 @@
         <v>-4433.268627443319</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>360</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,20 +4453,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4854,20 +4490,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4894,20 +4527,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4932,24 +4562,19 @@
         <v>-6424.65022744332</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>351</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4974,24 +4599,19 @@
         <v>-6424.65022744332</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>350</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5016,24 +4636,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>350</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5058,24 +4673,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>349</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5100,24 +4710,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>349</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5142,24 +4747,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>349</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5184,24 +4784,21 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
         <v>349</v>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5226,24 +4823,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>349</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5268,24 +4860,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>349</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5310,24 +4897,21 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>349</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5354,20 +4938,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5394,20 +4975,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5434,20 +5012,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5474,20 +5049,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5514,20 +5086,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5554,20 +5123,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5594,20 +5160,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5634,20 +5197,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5674,20 +5234,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5714,20 +5271,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5754,20 +5308,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5792,24 +5343,19 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>347</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5836,20 +5382,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5876,20 +5419,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5916,20 +5456,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5954,24 +5491,19 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>347</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5998,20 +5530,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6038,20 +5567,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6078,20 +5604,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6116,26 +5639,21 @@
         <v>-9526.42192744332</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>364</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>17021.61987255667</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>16493.87267255667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16910.70007255667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>16872.07267255667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>16305.76577255667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>13727.47657255667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11674.40487255667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>16904.66947255667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>16891.64867255667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>16673.45967255667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>16237.50567255667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>16496.48307255668</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>16668.18307255668</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>16472.26427255668</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>16281.85127255668</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>19478.95047255668</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>19368.07247255668</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>13526.60627255668</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>15927.54267255668</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14232.66587255668</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14757.44457255668</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14754.45207255668</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>13628.29907255668</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>13628.29907255668</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>13600.16907255668</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>13600.16907255668</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>13332.03907255668</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>11284.13207255668</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>11596.51207255668</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>11900.14467255668</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>11900.14467255668</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4180,360 +4180,318 @@
         <v>2208.37177255668</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>353</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+      <c r="C116" t="n">
+        <v>351</v>
+      </c>
+      <c r="D116" t="n">
+        <v>353</v>
+      </c>
+      <c r="E116" t="n">
+        <v>351</v>
+      </c>
+      <c r="F116" t="n">
+        <v>552.606</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1655.76577255668</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>351</v>
+      </c>
+      <c r="C117" t="n">
+        <v>349</v>
+      </c>
+      <c r="D117" t="n">
+        <v>351</v>
+      </c>
+      <c r="E117" t="n">
+        <v>349</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7466.463</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-5810.697227443319</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>350</v>
+      </c>
+      <c r="C118" t="n">
+        <v>350</v>
+      </c>
+      <c r="D118" t="n">
+        <v>350</v>
+      </c>
+      <c r="E118" t="n">
+        <v>350</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-5785.817227443319</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>350</v>
+      </c>
+      <c r="C119" t="n">
+        <v>350</v>
+      </c>
+      <c r="D119" t="n">
+        <v>350</v>
+      </c>
+      <c r="E119" t="n">
+        <v>350</v>
+      </c>
+      <c r="F119" t="n">
+        <v>220.955</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-5785.817227443319</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>355</v>
+      </c>
+      <c r="C120" t="n">
+        <v>360</v>
+      </c>
+      <c r="D120" t="n">
+        <v>361</v>
+      </c>
+      <c r="E120" t="n">
+        <v>355</v>
+      </c>
+      <c r="F120" t="n">
+        <v>673.1906</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5112.626627443319</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>362</v>
+      </c>
+      <c r="C121" t="n">
+        <v>370</v>
+      </c>
+      <c r="D121" t="n">
+        <v>370</v>
+      </c>
+      <c r="E121" t="n">
+        <v>362</v>
+      </c>
+      <c r="F121" t="n">
+        <v>679.3579999999999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4433.268627443319</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>352</v>
+      </c>
+      <c r="C122" t="n">
+        <v>350</v>
+      </c>
+      <c r="D122" t="n">
+        <v>352</v>
+      </c>
+      <c r="E122" t="n">
+        <v>350</v>
+      </c>
+      <c r="F122" t="n">
+        <v>661.028</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-5094.296627443319</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>355</v>
+      </c>
+      <c r="C123" t="n">
+        <v>351</v>
+      </c>
+      <c r="D123" t="n">
+        <v>355</v>
+      </c>
+      <c r="E123" t="n">
+        <v>351</v>
+      </c>
+      <c r="F123" t="n">
+        <v>31.6572</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-5062.63942744332</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>350</v>
+      </c>
+      <c r="J123" t="n">
+        <v>350</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>357</v>
+      </c>
+      <c r="C124" t="n">
+        <v>351</v>
+      </c>
+      <c r="D124" t="n">
+        <v>357</v>
+      </c>
+      <c r="E124" t="n">
+        <v>350</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1015.438</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-5062.63942744332</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>350</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>353</v>
-      </c>
-      <c r="C116" t="n">
-        <v>351</v>
-      </c>
-      <c r="D116" t="n">
-        <v>353</v>
-      </c>
-      <c r="E116" t="n">
-        <v>351</v>
-      </c>
-      <c r="F116" t="n">
-        <v>552.606</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1655.76577255668</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>352</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>351</v>
-      </c>
-      <c r="C117" t="n">
-        <v>349</v>
-      </c>
-      <c r="D117" t="n">
-        <v>351</v>
-      </c>
-      <c r="E117" t="n">
-        <v>349</v>
-      </c>
-      <c r="F117" t="n">
-        <v>7466.463</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-5810.697227443319</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>351</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>350</v>
-      </c>
-      <c r="C118" t="n">
-        <v>350</v>
-      </c>
-      <c r="D118" t="n">
-        <v>350</v>
-      </c>
-      <c r="E118" t="n">
-        <v>350</v>
-      </c>
-      <c r="F118" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-5785.817227443319</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>349</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>350</v>
-      </c>
-      <c r="C119" t="n">
-        <v>350</v>
-      </c>
-      <c r="D119" t="n">
-        <v>350</v>
-      </c>
-      <c r="E119" t="n">
-        <v>350</v>
-      </c>
-      <c r="F119" t="n">
-        <v>220.955</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-5785.817227443319</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>350</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>355</v>
-      </c>
-      <c r="C120" t="n">
-        <v>360</v>
-      </c>
-      <c r="D120" t="n">
-        <v>361</v>
-      </c>
-      <c r="E120" t="n">
-        <v>355</v>
-      </c>
-      <c r="F120" t="n">
-        <v>673.1906</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-5112.626627443319</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>350</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>362</v>
-      </c>
-      <c r="C121" t="n">
-        <v>370</v>
-      </c>
-      <c r="D121" t="n">
-        <v>370</v>
-      </c>
-      <c r="E121" t="n">
-        <v>362</v>
-      </c>
-      <c r="F121" t="n">
-        <v>679.3579999999999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-4433.268627443319</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>352</v>
-      </c>
-      <c r="C122" t="n">
-        <v>350</v>
-      </c>
-      <c r="D122" t="n">
-        <v>352</v>
-      </c>
-      <c r="E122" t="n">
-        <v>350</v>
-      </c>
-      <c r="F122" t="n">
-        <v>661.028</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-5094.296627443319</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>355</v>
-      </c>
-      <c r="C123" t="n">
-        <v>351</v>
-      </c>
-      <c r="D123" t="n">
-        <v>355</v>
-      </c>
-      <c r="E123" t="n">
-        <v>351</v>
-      </c>
-      <c r="F123" t="n">
-        <v>31.6572</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-5062.63942744332</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>357</v>
-      </c>
-      <c r="C124" t="n">
-        <v>351</v>
-      </c>
-      <c r="D124" t="n">
-        <v>357</v>
-      </c>
-      <c r="E124" t="n">
-        <v>350</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1015.438</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-5062.63942744332</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4562,10 +4520,14 @@
         <v>-6424.65022744332</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>351</v>
+      </c>
+      <c r="J125" t="n">
+        <v>350</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,10 +4561,14 @@
         <v>-6424.65022744332</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>350</v>
+      </c>
+      <c r="J126" t="n">
+        <v>350</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,10 +4602,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>350</v>
+      </c>
+      <c r="J127" t="n">
+        <v>350</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,10 +4643,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>349</v>
+      </c>
+      <c r="J128" t="n">
+        <v>350</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,10 +4684,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>349</v>
+      </c>
+      <c r="J129" t="n">
+        <v>350</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,10 +4725,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>349</v>
+      </c>
+      <c r="J130" t="n">
+        <v>350</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,12 +4766,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>349</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>350</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,10 +4807,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>349</v>
+      </c>
+      <c r="J132" t="n">
+        <v>350</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,10 +4848,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>349</v>
+      </c>
+      <c r="J133" t="n">
+        <v>350</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,12 +4889,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>349</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>350</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,10 +4930,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>349</v>
+      </c>
+      <c r="J135" t="n">
+        <v>350</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,10 +4971,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>347</v>
+      </c>
+      <c r="J136" t="n">
+        <v>350</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,10 +5012,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>347</v>
+      </c>
+      <c r="J137" t="n">
+        <v>350</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,10 +5053,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>347</v>
+      </c>
+      <c r="J138" t="n">
+        <v>350</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,10 +5094,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>347</v>
+      </c>
+      <c r="J139" t="n">
+        <v>350</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,7 +5138,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>350</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>350</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,7 +5216,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>350</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,7 +5255,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>350</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,7 +5294,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>350</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,7 +5333,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>350</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,10 +5369,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>347</v>
+      </c>
+      <c r="J146" t="n">
+        <v>350</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5380,10 +5410,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>347</v>
+      </c>
+      <c r="J147" t="n">
+        <v>350</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5417,10 +5451,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>347</v>
+      </c>
+      <c r="J148" t="n">
+        <v>350</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,10 +5492,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>347</v>
+      </c>
+      <c r="J149" t="n">
+        <v>350</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,10 +5533,14 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>347</v>
+      </c>
+      <c r="J150" t="n">
+        <v>350</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,7 +5577,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>350</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,7 +5616,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>350</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,10 +5652,14 @@
         <v>-7135.589527443321</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>347</v>
+      </c>
+      <c r="J153" t="n">
+        <v>350</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,10 +5693,14 @@
         <v>-9526.42192744332</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>364</v>
+      </c>
+      <c r="J154" t="n">
+        <v>350</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,6 +5712,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14010.86678517841</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14949.62658517841</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14017.37788517841</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>13282.06578517841</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16910.70007255667</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>16872.07267255667</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>16305.76577255667</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>13727.47657255667</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11674.40487255667</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>16891.64867255667</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>16673.45967255667</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>16237.50567255667</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>16496.48307255668</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>16668.18307255668</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>16281.85127255668</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>19478.95047255668</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>19368.07247255668</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>19371.07247255668</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14232.66587255668</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14757.44457255668</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14754.45207255668</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14128.83907255668</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>13628.29907255668</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>13628.29907255668</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>13600.16907255668</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>13600.16907255668</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>13332.03907255668</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>11284.13207255668</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>11596.51207255668</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>11900.14467255668</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>11900.14467255668</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4444,14 +4444,10 @@
         <v>-5062.63942744332</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>350</v>
-      </c>
-      <c r="J123" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4484,465 +4480,377 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>350</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="C125" t="n">
+        <v>350</v>
+      </c>
+      <c r="D125" t="n">
+        <v>350</v>
+      </c>
+      <c r="E125" t="n">
+        <v>350</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1362.0108</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-6424.65022744332</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>350</v>
+      </c>
+      <c r="C126" t="n">
+        <v>350</v>
+      </c>
+      <c r="D126" t="n">
+        <v>350</v>
+      </c>
+      <c r="E126" t="n">
+        <v>350</v>
+      </c>
+      <c r="F126" t="n">
+        <v>297.08</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-6424.65022744332</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>350</v>
+      </c>
+      <c r="C127" t="n">
+        <v>349</v>
+      </c>
+      <c r="D127" t="n">
+        <v>350</v>
+      </c>
+      <c r="E127" t="n">
+        <v>349</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>349</v>
+      </c>
+      <c r="C128" t="n">
+        <v>349</v>
+      </c>
+      <c r="D128" t="n">
+        <v>349</v>
+      </c>
+      <c r="E128" t="n">
+        <v>349</v>
+      </c>
+      <c r="F128" t="n">
+        <v>446.558</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>349</v>
+      </c>
+      <c r="C129" t="n">
+        <v>349</v>
+      </c>
+      <c r="D129" t="n">
+        <v>349</v>
+      </c>
+      <c r="E129" t="n">
+        <v>349</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1619.5315</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>349</v>
+      </c>
+      <c r="C130" t="n">
+        <v>349</v>
+      </c>
+      <c r="D130" t="n">
+        <v>349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>349</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1674.77</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>349</v>
+      </c>
+      <c r="C131" t="n">
+        <v>349</v>
+      </c>
+      <c r="D131" t="n">
+        <v>349</v>
+      </c>
+      <c r="E131" t="n">
+        <v>349</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>349</v>
+      </c>
+      <c r="C132" t="n">
+        <v>349</v>
+      </c>
+      <c r="D132" t="n">
+        <v>349</v>
+      </c>
+      <c r="E132" t="n">
+        <v>349</v>
+      </c>
+      <c r="F132" t="n">
+        <v>445.5775</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>349</v>
+      </c>
+      <c r="C133" t="n">
+        <v>349</v>
+      </c>
+      <c r="D133" t="n">
+        <v>349</v>
+      </c>
+      <c r="E133" t="n">
+        <v>349</v>
+      </c>
+      <c r="F133" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>349</v>
+      </c>
+      <c r="C134" t="n">
+        <v>349</v>
+      </c>
+      <c r="D134" t="n">
+        <v>349</v>
+      </c>
+      <c r="E134" t="n">
+        <v>349</v>
+      </c>
+      <c r="F134" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-6425.67022744332</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>349</v>
+      </c>
+      <c r="C135" t="n">
+        <v>347</v>
+      </c>
+      <c r="D135" t="n">
+        <v>349</v>
+      </c>
+      <c r="E135" t="n">
+        <v>347</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2023.612</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-8449.28222744332</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>349</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>350</v>
-      </c>
-      <c r="C125" t="n">
-        <v>350</v>
-      </c>
-      <c r="D125" t="n">
-        <v>350</v>
-      </c>
-      <c r="E125" t="n">
-        <v>350</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1362.0108</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-6424.65022744332</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>351</v>
-      </c>
-      <c r="J125" t="n">
-        <v>350</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>350</v>
-      </c>
-      <c r="C126" t="n">
-        <v>350</v>
-      </c>
-      <c r="D126" t="n">
-        <v>350</v>
-      </c>
-      <c r="E126" t="n">
-        <v>350</v>
-      </c>
-      <c r="F126" t="n">
-        <v>297.08</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-6424.65022744332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>350</v>
-      </c>
-      <c r="J126" t="n">
-        <v>350</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>350</v>
-      </c>
-      <c r="C127" t="n">
-        <v>349</v>
-      </c>
-      <c r="D127" t="n">
-        <v>350</v>
-      </c>
-      <c r="E127" t="n">
-        <v>349</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>350</v>
-      </c>
-      <c r="J127" t="n">
-        <v>350</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>349</v>
-      </c>
-      <c r="C128" t="n">
-        <v>349</v>
-      </c>
-      <c r="D128" t="n">
-        <v>349</v>
-      </c>
-      <c r="E128" t="n">
-        <v>349</v>
-      </c>
-      <c r="F128" t="n">
-        <v>446.558</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>349</v>
-      </c>
-      <c r="J128" t="n">
-        <v>350</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>349</v>
-      </c>
-      <c r="C129" t="n">
-        <v>349</v>
-      </c>
-      <c r="D129" t="n">
-        <v>349</v>
-      </c>
-      <c r="E129" t="n">
-        <v>349</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1619.5315</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>349</v>
-      </c>
-      <c r="J129" t="n">
-        <v>350</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>349</v>
-      </c>
-      <c r="C130" t="n">
-        <v>349</v>
-      </c>
-      <c r="D130" t="n">
-        <v>349</v>
-      </c>
-      <c r="E130" t="n">
-        <v>349</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1674.77</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>349</v>
-      </c>
-      <c r="J130" t="n">
-        <v>350</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>349</v>
-      </c>
-      <c r="C131" t="n">
-        <v>349</v>
-      </c>
-      <c r="D131" t="n">
-        <v>349</v>
-      </c>
-      <c r="E131" t="n">
-        <v>349</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>349</v>
-      </c>
-      <c r="J131" t="n">
-        <v>350</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>349</v>
-      </c>
-      <c r="C132" t="n">
-        <v>349</v>
-      </c>
-      <c r="D132" t="n">
-        <v>349</v>
-      </c>
-      <c r="E132" t="n">
-        <v>349</v>
-      </c>
-      <c r="F132" t="n">
-        <v>445.5775</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>349</v>
-      </c>
-      <c r="J132" t="n">
-        <v>350</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>349</v>
-      </c>
-      <c r="C133" t="n">
-        <v>349</v>
-      </c>
-      <c r="D133" t="n">
-        <v>349</v>
-      </c>
-      <c r="E133" t="n">
-        <v>349</v>
-      </c>
-      <c r="F133" t="n">
-        <v>57.43</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>349</v>
-      </c>
-      <c r="J133" t="n">
-        <v>350</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>349</v>
-      </c>
-      <c r="C134" t="n">
-        <v>349</v>
-      </c>
-      <c r="D134" t="n">
-        <v>349</v>
-      </c>
-      <c r="E134" t="n">
-        <v>349</v>
-      </c>
-      <c r="F134" t="n">
-        <v>280.3</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>349</v>
-      </c>
-      <c r="J134" t="n">
-        <v>350</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>349</v>
-      </c>
-      <c r="C135" t="n">
-        <v>347</v>
-      </c>
-      <c r="D135" t="n">
-        <v>349</v>
-      </c>
-      <c r="E135" t="n">
-        <v>347</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2023.612</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>349</v>
-      </c>
-      <c r="J135" t="n">
-        <v>350</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4976,9 +4884,7 @@
       <c r="I136" t="n">
         <v>347</v>
       </c>
-      <c r="J136" t="n">
-        <v>350</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5017,9 +4923,7 @@
       <c r="I137" t="n">
         <v>347</v>
       </c>
-      <c r="J137" t="n">
-        <v>350</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,9 +4962,7 @@
       <c r="I138" t="n">
         <v>347</v>
       </c>
-      <c r="J138" t="n">
-        <v>350</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,9 +5001,7 @@
       <c r="I139" t="n">
         <v>347</v>
       </c>
-      <c r="J139" t="n">
-        <v>350</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,9 +5038,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>350</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,9 +5075,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>350</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,9 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>350</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,9 +5149,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>350</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,9 +5186,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>350</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5223,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>350</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,14 +5257,10 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>347</v>
-      </c>
-      <c r="J146" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,14 +5294,10 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>347</v>
-      </c>
-      <c r="J147" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,14 +5331,10 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>347</v>
-      </c>
-      <c r="J148" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,14 +5368,10 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>347</v>
-      </c>
-      <c r="J149" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,14 +5405,10 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>347</v>
-      </c>
-      <c r="J150" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,9 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>350</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,9 +5482,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>350</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,14 +5516,10 @@
         <v>-7135.589527443321</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>347</v>
-      </c>
-      <c r="J153" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,14 +5553,10 @@
         <v>-9526.42192744332</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>364</v>
-      </c>
-      <c r="J154" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,6 +5568,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -451,7 +451,7 @@
         <v>14010.86678517841</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14949.62658517841</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14017.37788517841</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>13282.06578517841</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>14001.86757768487</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>13771.11117768487</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>17021.61987255667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>17423.37887255667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>16496.99677255667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>16493.87267255667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16910.70007255667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19135.89047255667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16874.27937255667</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>16875.76267255667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>16872.07267255667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>16305.76577255667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>13727.47657255667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>16904.66947255667</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>16472.26427255668</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>16334.21227255668</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -4675,10 +4675,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>349</v>
+      </c>
+      <c r="J130" t="n">
+        <v>349</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4708,11 +4712,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>349</v>
+      </c>
+      <c r="J131" t="n">
+        <v>349</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4753,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>349</v>
+      </c>
+      <c r="J132" t="n">
+        <v>349</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,10 +4794,14 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>349</v>
+      </c>
+      <c r="J133" t="n">
+        <v>349</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4807,11 +4831,19 @@
         <v>-6425.67022744332</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>349</v>
+      </c>
+      <c r="J134" t="n">
+        <v>349</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4845,7 +4877,9 @@
       <c r="I135" t="n">
         <v>349</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>349</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4884,7 +4918,9 @@
       <c r="I136" t="n">
         <v>347</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>349</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,7 +4959,9 @@
       <c r="I137" t="n">
         <v>347</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>349</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,7 +5000,9 @@
       <c r="I138" t="n">
         <v>347</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>349</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,12 +5036,12 @@
         <v>-8449.28222744332</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>347</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>349</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>349</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,7 +5117,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>349</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,7 +5156,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>349</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,7 +5195,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>349</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,7 +5234,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>349</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,7 +5273,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>349</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,7 +5312,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>349</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,7 +5351,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>349</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,7 +5390,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>349</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,7 +5429,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>349</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,7 +5468,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>349</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,7 +5507,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>349</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,7 +5546,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>349</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,7 +5585,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>349</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,7 +5624,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>349</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-30 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-30 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>258.9774074935401</v>
       </c>
       <c r="G2" t="n">
-        <v>14010.86678517841</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>938.7598</v>
       </c>
       <c r="G3" t="n">
-        <v>14949.62658517841</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>932.2487</v>
       </c>
       <c r="G4" t="n">
-        <v>14017.37788517841</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>735.3121</v>
       </c>
       <c r="G5" t="n">
-        <v>13282.06578517841</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>719.8017925064599</v>
       </c>
       <c r="G6" t="n">
-        <v>14001.86757768487</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>39.4346</v>
       </c>
       <c r="G7" t="n">
-        <v>14001.86757768487</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>230.7564</v>
       </c>
       <c r="G8" t="n">
-        <v>13771.11117768487</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>153.9924051282051</v>
       </c>
       <c r="G9" t="n">
-        <v>13771.11117768487</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3250.508694871795</v>
       </c>
       <c r="G10" t="n">
-        <v>17021.61987255667</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>401.759</v>
       </c>
       <c r="G11" t="n">
-        <v>17423.37887255667</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>926.3821</v>
       </c>
       <c r="G12" t="n">
-        <v>16496.99677255667</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4977.213</v>
       </c>
       <c r="G13" t="n">
-        <v>16496.99677255667</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3.1241</v>
       </c>
       <c r="G14" t="n">
-        <v>16493.87267255667</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>416.8274</v>
       </c>
       <c r="G15" t="n">
-        <v>16910.70007255667</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2225.1904</v>
       </c>
       <c r="G16" t="n">
-        <v>19135.89047255667</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1478.8555</v>
       </c>
       <c r="G17" t="n">
-        <v>19135.89047255667</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2261.6111</v>
       </c>
       <c r="G18" t="n">
-        <v>16874.27937255667</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1.4833</v>
       </c>
       <c r="G19" t="n">
-        <v>16875.76267255667</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3.69</v>
       </c>
       <c r="G20" t="n">
-        <v>16872.07267255667</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>566.3069</v>
       </c>
       <c r="G21" t="n">
-        <v>16305.76577255667</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2578.2892</v>
       </c>
       <c r="G22" t="n">
-        <v>13727.47657255667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2053.0717</v>
       </c>
       <c r="G23" t="n">
-        <v>11674.40487255667</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5230.2646</v>
       </c>
       <c r="G24" t="n">
-        <v>16904.66947255667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>13.0208</v>
       </c>
       <c r="G25" t="n">
-        <v>16891.64867255667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>218.189</v>
       </c>
       <c r="G26" t="n">
-        <v>16673.45967255667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>435.954</v>
       </c>
       <c r="G27" t="n">
-        <v>16237.50567255667</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>258.9774</v>
       </c>
       <c r="G28" t="n">
-        <v>16496.48307255668</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>171.7</v>
       </c>
       <c r="G29" t="n">
-        <v>16668.18307255668</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>195.9188</v>
       </c>
       <c r="G30" t="n">
-        <v>16472.26427255668</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>138.052</v>
       </c>
       <c r="G31" t="n">
-        <v>16334.21227255668</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>865.66</v>
       </c>
       <c r="G32" t="n">
-        <v>16334.21227255668</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>0.734</v>
       </c>
       <c r="G33" t="n">
-        <v>16334.21227255668</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>52.361</v>
       </c>
       <c r="G34" t="n">
-        <v>16281.85127255668</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3197.0992</v>
       </c>
       <c r="G35" t="n">
-        <v>19478.95047255668</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>110.878</v>
       </c>
       <c r="G36" t="n">
-        <v>19368.07247255668</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>19371.07247255668</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>157.1757</v>
       </c>
       <c r="G38" t="n">
-        <v>19371.07247255668</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>19371.07247255668</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>186.8445</v>
       </c>
       <c r="G40" t="n">
-        <v>19557.91697255668</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1.05</v>
       </c>
       <c r="G41" t="n">
-        <v>19558.96697255667</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>391.5969</v>
       </c>
       <c r="G42" t="n">
-        <v>19950.56387255668</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>5456.3683</v>
       </c>
       <c r="G43" t="n">
-        <v>14494.19557255667</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>38.7358</v>
       </c>
       <c r="G44" t="n">
-        <v>14532.93137255668</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>655.0225</v>
       </c>
       <c r="G45" t="n">
-        <v>13877.90887255668</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>13878.90887255668</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>13876.90887255668</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>500.6927</v>
       </c>
       <c r="G48" t="n">
-        <v>13876.90887255668</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>442.4409</v>
       </c>
       <c r="G49" t="n">
-        <v>13876.90887255668</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19.0949</v>
       </c>
       <c r="G50" t="n">
-        <v>13896.00377255668</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>369.3975</v>
       </c>
       <c r="G51" t="n">
-        <v>13526.60627255668</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2400.9364</v>
       </c>
       <c r="G52" t="n">
-        <v>15927.54267255668</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1694.8768</v>
       </c>
       <c r="G53" t="n">
-        <v>14232.66587255668</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>524.7787</v>
       </c>
       <c r="G54" t="n">
-        <v>14757.44457255668</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2.9925</v>
       </c>
       <c r="G55" t="n">
-        <v>14754.45207255668</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>625.6130000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>14128.83907255668</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>51.0589</v>
       </c>
       <c r="G57" t="n">
-        <v>14128.83907255668</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>208.27</v>
       </c>
       <c r="G58" t="n">
-        <v>14128.83907255668</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>500.54</v>
       </c>
       <c r="G59" t="n">
-        <v>13628.29907255668</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>768.7430000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>13628.29907255668</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>28.13</v>
       </c>
       <c r="G61" t="n">
-        <v>13600.16907255668</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>28.13</v>
       </c>
       <c r="G62" t="n">
-        <v>13600.16907255668</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>268.13</v>
       </c>
       <c r="G63" t="n">
-        <v>13332.03907255668</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2047.907</v>
       </c>
       <c r="G64" t="n">
-        <v>11284.13207255668</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>312.38</v>
       </c>
       <c r="G65" t="n">
-        <v>11596.51207255668</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>303.6326</v>
       </c>
       <c r="G66" t="n">
-        <v>11900.14467255668</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>149.5733</v>
       </c>
       <c r="G67" t="n">
-        <v>11900.14467255668</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>171.662</v>
       </c>
       <c r="G68" t="n">
-        <v>11900.14467255668</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>8.666600000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>11908.81127255668</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>41.5069</v>
       </c>
       <c r="G70" t="n">
-        <v>11867.30437255668</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>240.1328</v>
       </c>
       <c r="G71" t="n">
-        <v>11627.17157255668</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>28.49</v>
       </c>
       <c r="G72" t="n">
-        <v>11627.17157255668</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>184.7345</v>
       </c>
       <c r="G73" t="n">
-        <v>11627.17157255668</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5934.8059</v>
       </c>
       <c r="G74" t="n">
-        <v>5692.365672556681</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>97.1215</v>
       </c>
       <c r="G75" t="n">
-        <v>5789.487172556681</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>41.4031</v>
       </c>
       <c r="G76" t="n">
-        <v>5748.08407255668</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>6048.08407255668</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>266.2052</v>
       </c>
       <c r="G78" t="n">
-        <v>6314.289272556681</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>770.1309</v>
       </c>
       <c r="G79" t="n">
-        <v>7084.420172556681</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>666</v>
       </c>
       <c r="G80" t="n">
-        <v>7084.420172556681</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1887.991</v>
       </c>
       <c r="G81" t="n">
-        <v>7084.420172556681</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>355</v>
       </c>
       <c r="G82" t="n">
-        <v>7439.420172556681</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>9142.267599999999</v>
       </c>
       <c r="G83" t="n">
-        <v>7439.420172556681</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>508.1936</v>
       </c>
       <c r="G84" t="n">
-        <v>7947.61377255668</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1577.109</v>
       </c>
       <c r="G85" t="n">
-        <v>7947.61377255668</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>33</v>
       </c>
       <c r="G86" t="n">
-        <v>7914.61377255668</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>38.4091</v>
       </c>
       <c r="G87" t="n">
-        <v>7876.204672556681</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>21.7283</v>
       </c>
       <c r="G88" t="n">
-        <v>7854.476372556681</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>7844.476372556681</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>11.7165</v>
       </c>
       <c r="G90" t="n">
-        <v>7856.192872556681</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>966.2789</v>
       </c>
       <c r="G91" t="n">
-        <v>6889.913972556681</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>6899.913972556681</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>6900.913972556681</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>6901.913972556681</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1023.242</v>
       </c>
       <c r="G95" t="n">
-        <v>5878.671972556681</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1.8066</v>
       </c>
       <c r="G96" t="n">
-        <v>5880.478572556681</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>197.0184</v>
       </c>
       <c r="G97" t="n">
-        <v>5683.460172556681</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>214.95</v>
       </c>
       <c r="G98" t="n">
-        <v>5898.410172556681</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>5876.05</v>
       </c>
       <c r="G99" t="n">
-        <v>22.36017255668048</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>32.36017255668048</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1.0227</v>
       </c>
       <c r="G101" t="n">
-        <v>33.38287255668048</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1.375</v>
       </c>
       <c r="G102" t="n">
-        <v>32.00787255668048</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>201.7069</v>
       </c>
       <c r="G103" t="n">
-        <v>-169.6990274433195</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>272.252</v>
       </c>
       <c r="G104" t="n">
-        <v>-169.6990274433195</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>418.6628</v>
       </c>
       <c r="G105" t="n">
-        <v>248.9637725566805</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>4500</v>
       </c>
       <c r="G106" t="n">
-        <v>248.9637725566805</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3983.03</v>
       </c>
       <c r="G107" t="n">
-        <v>4231.993772556681</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>56</v>
       </c>
       <c r="G108" t="n">
-        <v>4175.993772556681</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>829.6319999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>5005.62577255668</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2549.741</v>
       </c>
       <c r="G110" t="n">
-        <v>2455.88477255668</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>115</v>
       </c>
       <c r="G111" t="n">
-        <v>2570.88477255668</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>27.74</v>
       </c>
       <c r="G112" t="n">
-        <v>2543.14477255668</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>207.25</v>
       </c>
       <c r="G113" t="n">
-        <v>2335.89477255668</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>207.563</v>
       </c>
       <c r="G114" t="n">
-        <v>2543.457772556681</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>335.086</v>
       </c>
       <c r="G115" t="n">
-        <v>2208.37177255668</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>552.606</v>
       </c>
       <c r="G116" t="n">
-        <v>1655.76577255668</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>7466.463</v>
       </c>
       <c r="G117" t="n">
-        <v>-5810.697227443319</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>24.88</v>
       </c>
       <c r="G118" t="n">
-        <v>-5785.817227443319</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>220.955</v>
       </c>
       <c r="G119" t="n">
-        <v>-5785.817227443319</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>673.1906</v>
       </c>
       <c r="G120" t="n">
-        <v>-5112.626627443319</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>679.3579999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-4433.268627443319</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>661.028</v>
       </c>
       <c r="G122" t="n">
-        <v>-5094.296627443319</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>31.6572</v>
       </c>
       <c r="G123" t="n">
-        <v>-5062.63942744332</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1015.438</v>
       </c>
       <c r="G124" t="n">
-        <v>-5062.63942744332</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1362.0108</v>
       </c>
       <c r="G125" t="n">
-        <v>-6424.65022744332</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>297.08</v>
       </c>
       <c r="G126" t="n">
-        <v>-6424.65022744332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1.02</v>
       </c>
       <c r="G127" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>446.558</v>
       </c>
       <c r="G128" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1619.5315</v>
       </c>
       <c r="G129" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,22 +4283,15 @@
         <v>1674.77</v>
       </c>
       <c r="G130" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>349</v>
-      </c>
-      <c r="J130" t="n">
-        <v>349</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4709,933 +4313,777 @@
         <v>8.06</v>
       </c>
       <c r="G131" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>349</v>
       </c>
-      <c r="J131" t="n">
+      <c r="C132" t="n">
         <v>349</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="D132" t="n">
+        <v>349</v>
+      </c>
+      <c r="E132" t="n">
+        <v>349</v>
+      </c>
+      <c r="F132" t="n">
+        <v>445.5775</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>349</v>
+      </c>
+      <c r="C133" t="n">
+        <v>349</v>
+      </c>
+      <c r="D133" t="n">
+        <v>349</v>
+      </c>
+      <c r="E133" t="n">
+        <v>349</v>
+      </c>
+      <c r="F133" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>349</v>
+      </c>
+      <c r="C134" t="n">
+        <v>349</v>
+      </c>
+      <c r="D134" t="n">
+        <v>349</v>
+      </c>
+      <c r="E134" t="n">
+        <v>349</v>
+      </c>
+      <c r="F134" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>349</v>
+      </c>
+      <c r="C135" t="n">
+        <v>347</v>
+      </c>
+      <c r="D135" t="n">
+        <v>349</v>
+      </c>
+      <c r="E135" t="n">
+        <v>347</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2023.612</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>347</v>
+      </c>
+      <c r="C136" t="n">
+        <v>347</v>
+      </c>
+      <c r="D136" t="n">
+        <v>347</v>
+      </c>
+      <c r="E136" t="n">
+        <v>347</v>
+      </c>
+      <c r="F136" t="n">
+        <v>250.041</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>347</v>
+      </c>
+      <c r="C137" t="n">
+        <v>347</v>
+      </c>
+      <c r="D137" t="n">
+        <v>347</v>
+      </c>
+      <c r="E137" t="n">
+        <v>347</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5700.6157</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>347</v>
+      </c>
+      <c r="C138" t="n">
+        <v>347</v>
+      </c>
+      <c r="D138" t="n">
+        <v>347</v>
+      </c>
+      <c r="E138" t="n">
+        <v>347</v>
+      </c>
+      <c r="F138" t="n">
+        <v>943610.5041</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>347</v>
+      </c>
+      <c r="C139" t="n">
+        <v>347</v>
+      </c>
+      <c r="D139" t="n">
+        <v>347</v>
+      </c>
+      <c r="E139" t="n">
+        <v>347</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1435192.0242</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>347</v>
+      </c>
+      <c r="C140" t="n">
+        <v>347</v>
+      </c>
+      <c r="D140" t="n">
+        <v>347</v>
+      </c>
+      <c r="E140" t="n">
+        <v>347</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1491695.6472</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>347</v>
+      </c>
+      <c r="C141" t="n">
+        <v>347</v>
+      </c>
+      <c r="D141" t="n">
+        <v>348</v>
+      </c>
+      <c r="E141" t="n">
+        <v>347</v>
+      </c>
+      <c r="F141" t="n">
+        <v>864505.4319</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>347</v>
+      </c>
+      <c r="C142" t="n">
+        <v>347</v>
+      </c>
+      <c r="D142" t="n">
+        <v>347</v>
+      </c>
+      <c r="E142" t="n">
+        <v>347</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1431993.4734</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>347</v>
+      </c>
+      <c r="C143" t="n">
+        <v>347</v>
+      </c>
+      <c r="D143" t="n">
+        <v>347</v>
+      </c>
+      <c r="E143" t="n">
+        <v>347</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1431993.4734</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>347</v>
+      </c>
+      <c r="C144" t="n">
+        <v>347</v>
+      </c>
+      <c r="D144" t="n">
+        <v>347</v>
+      </c>
+      <c r="E144" t="n">
+        <v>347</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1398691.2996</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>347</v>
+      </c>
+      <c r="I144" t="n">
+        <v>347</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>347</v>
+      </c>
+      <c r="C145" t="n">
+        <v>347</v>
+      </c>
+      <c r="D145" t="n">
+        <v>347</v>
+      </c>
+      <c r="E145" t="n">
+        <v>347</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1037757.7501</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>347</v>
+      </c>
+      <c r="I145" t="n">
+        <v>347</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>349</v>
-      </c>
-      <c r="C132" t="n">
-        <v>349</v>
-      </c>
-      <c r="D132" t="n">
-        <v>349</v>
-      </c>
-      <c r="E132" t="n">
-        <v>349</v>
-      </c>
-      <c r="F132" t="n">
-        <v>445.5775</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>349</v>
-      </c>
-      <c r="J132" t="n">
-        <v>349</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>349</v>
-      </c>
-      <c r="C133" t="n">
-        <v>349</v>
-      </c>
-      <c r="D133" t="n">
-        <v>349</v>
-      </c>
-      <c r="E133" t="n">
-        <v>349</v>
-      </c>
-      <c r="F133" t="n">
-        <v>57.43</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>349</v>
-      </c>
-      <c r="J133" t="n">
-        <v>349</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>349</v>
-      </c>
-      <c r="C134" t="n">
-        <v>349</v>
-      </c>
-      <c r="D134" t="n">
-        <v>349</v>
-      </c>
-      <c r="E134" t="n">
-        <v>349</v>
-      </c>
-      <c r="F134" t="n">
-        <v>280.3</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-6425.67022744332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>349</v>
-      </c>
-      <c r="J134" t="n">
-        <v>349</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>349</v>
-      </c>
-      <c r="C135" t="n">
-        <v>347</v>
-      </c>
-      <c r="D135" t="n">
-        <v>349</v>
-      </c>
-      <c r="E135" t="n">
-        <v>347</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2023.612</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>349</v>
-      </c>
-      <c r="J135" t="n">
-        <v>349</v>
-      </c>
-      <c r="K135" t="inlineStr">
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>347</v>
+      </c>
+      <c r="C146" t="n">
+        <v>347</v>
+      </c>
+      <c r="D146" t="n">
+        <v>348</v>
+      </c>
+      <c r="E146" t="n">
+        <v>347</v>
+      </c>
+      <c r="F146" t="n">
+        <v>879287.6495000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>347</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>347</v>
-      </c>
-      <c r="C136" t="n">
-        <v>347</v>
-      </c>
-      <c r="D136" t="n">
-        <v>347</v>
-      </c>
-      <c r="E136" t="n">
-        <v>347</v>
-      </c>
-      <c r="F136" t="n">
-        <v>250.041</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>347</v>
-      </c>
-      <c r="J136" t="n">
-        <v>349</v>
-      </c>
-      <c r="K136" t="inlineStr">
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>347</v>
+      </c>
+      <c r="C147" t="n">
+        <v>347</v>
+      </c>
+      <c r="D147" t="n">
+        <v>347</v>
+      </c>
+      <c r="E147" t="n">
+        <v>347</v>
+      </c>
+      <c r="F147" t="n">
+        <v>917731.2287</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>347</v>
+      </c>
+      <c r="I147" t="n">
+        <v>347</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>347</v>
-      </c>
-      <c r="C137" t="n">
-        <v>347</v>
-      </c>
-      <c r="D137" t="n">
-        <v>347</v>
-      </c>
-      <c r="E137" t="n">
-        <v>347</v>
-      </c>
-      <c r="F137" t="n">
-        <v>5700.6157</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>347</v>
-      </c>
-      <c r="J137" t="n">
-        <v>349</v>
-      </c>
-      <c r="K137" t="inlineStr">
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>347</v>
+      </c>
+      <c r="C148" t="n">
+        <v>347</v>
+      </c>
+      <c r="D148" t="n">
+        <v>347</v>
+      </c>
+      <c r="E148" t="n">
+        <v>347</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1308717.3143</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>347</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>347</v>
-      </c>
-      <c r="C138" t="n">
-        <v>347</v>
-      </c>
-      <c r="D138" t="n">
-        <v>347</v>
-      </c>
-      <c r="E138" t="n">
-        <v>347</v>
-      </c>
-      <c r="F138" t="n">
-        <v>943610.5041</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>347</v>
-      </c>
-      <c r="J138" t="n">
-        <v>349</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>347</v>
+      </c>
+      <c r="C149" t="n">
+        <v>347</v>
+      </c>
+      <c r="D149" t="n">
+        <v>347</v>
+      </c>
+      <c r="E149" t="n">
+        <v>347</v>
+      </c>
+      <c r="F149" t="n">
+        <v>725531.9006000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>347</v>
+      </c>
+      <c r="I149" t="n">
+        <v>347</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>347</v>
-      </c>
-      <c r="C139" t="n">
-        <v>347</v>
-      </c>
-      <c r="D139" t="n">
-        <v>347</v>
-      </c>
-      <c r="E139" t="n">
-        <v>347</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1435192.0242</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>349</v>
-      </c>
-      <c r="K139" t="inlineStr">
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>347</v>
+      </c>
+      <c r="C150" t="n">
+        <v>347</v>
+      </c>
+      <c r="D150" t="n">
+        <v>362</v>
+      </c>
+      <c r="E150" t="n">
+        <v>347</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1150510.5934</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>347</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>347</v>
-      </c>
-      <c r="C140" t="n">
-        <v>347</v>
-      </c>
-      <c r="D140" t="n">
-        <v>347</v>
-      </c>
-      <c r="E140" t="n">
-        <v>347</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1491695.6472</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>349</v>
-      </c>
-      <c r="K140" t="inlineStr">
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>348</v>
+      </c>
+      <c r="C151" t="n">
+        <v>347</v>
+      </c>
+      <c r="D151" t="n">
+        <v>348</v>
+      </c>
+      <c r="E151" t="n">
+        <v>347</v>
+      </c>
+      <c r="F151" t="n">
+        <v>53101.9293</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>347</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>347</v>
-      </c>
-      <c r="C141" t="n">
-        <v>347</v>
-      </c>
-      <c r="D141" t="n">
-        <v>348</v>
-      </c>
-      <c r="E141" t="n">
-        <v>347</v>
-      </c>
-      <c r="F141" t="n">
-        <v>864505.4319</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>349</v>
-      </c>
-      <c r="K141" t="inlineStr">
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>347</v>
+      </c>
+      <c r="C152" t="n">
+        <v>347</v>
+      </c>
+      <c r="D152" t="n">
+        <v>350</v>
+      </c>
+      <c r="E152" t="n">
+        <v>347</v>
+      </c>
+      <c r="F152" t="n">
+        <v>67464.24370000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>347</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>347</v>
-      </c>
-      <c r="C142" t="n">
-        <v>347</v>
-      </c>
-      <c r="D142" t="n">
-        <v>347</v>
-      </c>
-      <c r="E142" t="n">
-        <v>347</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1431993.4734</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>349</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>347</v>
+      </c>
+      <c r="C153" t="n">
+        <v>364</v>
+      </c>
+      <c r="D153" t="n">
+        <v>364</v>
+      </c>
+      <c r="E153" t="n">
+        <v>347</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1313.6927</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>347</v>
+      </c>
+      <c r="I153" t="n">
+        <v>347</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>347</v>
-      </c>
-      <c r="C143" t="n">
-        <v>347</v>
-      </c>
-      <c r="D143" t="n">
-        <v>347</v>
-      </c>
-      <c r="E143" t="n">
-        <v>347</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1431993.4734</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>349</v>
-      </c>
-      <c r="K143" t="inlineStr">
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>360</v>
+      </c>
+      <c r="C154" t="n">
+        <v>342</v>
+      </c>
+      <c r="D154" t="n">
+        <v>364</v>
+      </c>
+      <c r="E154" t="n">
+        <v>342</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2390.8324</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>347</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>347</v>
-      </c>
-      <c r="C144" t="n">
-        <v>347</v>
-      </c>
-      <c r="D144" t="n">
-        <v>347</v>
-      </c>
-      <c r="E144" t="n">
-        <v>347</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1398691.2996</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>349</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>347</v>
-      </c>
-      <c r="C145" t="n">
-        <v>347</v>
-      </c>
-      <c r="D145" t="n">
-        <v>347</v>
-      </c>
-      <c r="E145" t="n">
-        <v>347</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1037757.7501</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>349</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>347</v>
-      </c>
-      <c r="C146" t="n">
-        <v>347</v>
-      </c>
-      <c r="D146" t="n">
-        <v>348</v>
-      </c>
-      <c r="E146" t="n">
-        <v>347</v>
-      </c>
-      <c r="F146" t="n">
-        <v>879287.6495000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>349</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>347</v>
-      </c>
-      <c r="C147" t="n">
-        <v>347</v>
-      </c>
-      <c r="D147" t="n">
-        <v>347</v>
-      </c>
-      <c r="E147" t="n">
-        <v>347</v>
-      </c>
-      <c r="F147" t="n">
-        <v>917731.2287</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>349</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>347</v>
-      </c>
-      <c r="C148" t="n">
-        <v>347</v>
-      </c>
-      <c r="D148" t="n">
-        <v>347</v>
-      </c>
-      <c r="E148" t="n">
-        <v>347</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1308717.3143</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>349</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>347</v>
-      </c>
-      <c r="C149" t="n">
-        <v>347</v>
-      </c>
-      <c r="D149" t="n">
-        <v>347</v>
-      </c>
-      <c r="E149" t="n">
-        <v>347</v>
-      </c>
-      <c r="F149" t="n">
-        <v>725531.9006000001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>349</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>347</v>
-      </c>
-      <c r="C150" t="n">
-        <v>347</v>
-      </c>
-      <c r="D150" t="n">
-        <v>362</v>
-      </c>
-      <c r="E150" t="n">
-        <v>347</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1150510.5934</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>349</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>348</v>
-      </c>
-      <c r="C151" t="n">
-        <v>347</v>
-      </c>
-      <c r="D151" t="n">
-        <v>348</v>
-      </c>
-      <c r="E151" t="n">
-        <v>347</v>
-      </c>
-      <c r="F151" t="n">
-        <v>53101.9293</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>349</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>347</v>
-      </c>
-      <c r="C152" t="n">
-        <v>347</v>
-      </c>
-      <c r="D152" t="n">
-        <v>350</v>
-      </c>
-      <c r="E152" t="n">
-        <v>347</v>
-      </c>
-      <c r="F152" t="n">
-        <v>67464.24370000001</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-8449.28222744332</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>349</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>347</v>
-      </c>
-      <c r="C153" t="n">
-        <v>364</v>
-      </c>
-      <c r="D153" t="n">
-        <v>364</v>
-      </c>
-      <c r="E153" t="n">
-        <v>347</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1313.6927</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-7135.589527443321</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>349</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>360</v>
-      </c>
-      <c r="C154" t="n">
-        <v>342</v>
-      </c>
-      <c r="D154" t="n">
-        <v>364</v>
-      </c>
-      <c r="E154" t="n">
-        <v>342</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2390.8324</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-9526.42192744332</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>349</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
